--- a/Docs/BOM_Group_3.xlsx
+++ b/Docs/BOM_Group_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1fd496a47fa4da2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1C2E2E-444F-40A9-B131-763233A2CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA49C12-E273-47AA-957B-92BE07DE4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
+    <workbookView minimized="1" xWindow="2880" yWindow="1995" windowWidth="21600" windowHeight="11835" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
   <si>
     <t>JLCPCB PART NUM</t>
   </si>
@@ -227,27 +227,27 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>C5378</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/5810-CL21B224KBFNNNE/C5378</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>HAT TOTALS</t>
   </si>
   <si>
-    <t>C5378</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/5810-CL21B224KBFNNNE/C5378</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C2286</t>
   </si>
   <si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
   </si>
   <si>
     <t>C22764</t>
@@ -453,48 +456,6 @@
     <t>USB to Serial</t>
   </si>
   <si>
-    <t>C225480</t>
-  </si>
-  <si>
-    <t>A2541WV-5P</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/cjt_changjiang_connectors-A2541WV5P/C225480</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>5x Pin Male Connector</t>
-  </si>
-  <si>
-    <t>C492407</t>
-  </si>
-  <si>
-    <t>PZ254V-11-08P</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Xfcn-PZ254V_1108P/C492407</t>
-  </si>
-  <si>
-    <t>J8, J11</t>
-  </si>
-  <si>
-    <t>8x Pin Male Connector</t>
-  </si>
-  <si>
-    <t>C27438</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/boomele_boom_Precision_elec-C27438/C27438</t>
-  </si>
-  <si>
-    <t>J9, J10</t>
-  </si>
-  <si>
-    <t>8x Socket Female Connector</t>
-  </si>
-  <si>
     <t>R29, R30, R31, R34, R35, R36, R37, R38</t>
   </si>
   <si>
@@ -577,9 +538,6 @@
   </si>
   <si>
     <t>1uF</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -587,10 +545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,14 +1246,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1316,24 +1274,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1353,13 +1293,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1419,10 +1377,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1722,13 +1676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604B193-2981-424E-9BAA-D7E15C8CB1A8}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1745,7 +1699,7 @@
     <col min="22" max="22" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1823,12 +1777,12 @@
         <f>K2+3*C2</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +1830,7 @@
         <v>1.9896999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1878,7 @@
         <v>9.9484999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +1919,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -2005,12 +1959,12 @@
         <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="44"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2055,10 +2009,10 @@
       </c>
       <c r="Q7" s="5">
         <f>Q8/5</f>
-        <v>5.4042000000000012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.8042000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -2102,11 +2056,11 @@
         <v>29</v>
       </c>
       <c r="Q8" s="5">
-        <f xml:space="preserve"> SUM(L30:L42)</f>
-        <v>27.021000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> SUM(L30:L39)</f>
+        <v>14.021000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2101,7 @@
         <v>3.2505000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="45">
       <c r="A10" s="8" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2129,7 @@
       <c r="I10" s="11">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="33">
         <f t="shared" si="0"/>
         <v>2.64E-2</v>
       </c>
@@ -2187,13 +2141,13 @@
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="41"/>
+      <c r="Q10" s="42"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="35"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2202,8 +2156,8 @@
         <v>1.41486665</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="40"/>
+    <row r="12" spans="1:17">
+      <c r="J12" s="34"/>
       <c r="P12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2166,7 @@
         <v>7.0743332500000005</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30">
       <c r="A13" s="12" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
@@ -2292,24 +2246,24 @@
         <v>1.7599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="C15" s="14">
         <v>0</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -2333,10 +2287,10 @@
         <f>K15+3*C15</f>
         <v>6.25E-2</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -2377,12 +2331,12 @@
         <f>K16+3*C16</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="43"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="17" t="s">
         <v>70</v>
       </c>
@@ -2430,7 +2384,7 @@
         <v>9.9484999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="17" t="s">
         <v>76</v>
       </c>
@@ -2479,7 +2433,7 @@
         <v>7.0743332500000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="17" t="s">
         <v>81</v>
       </c>
@@ -2525,10 +2479,10 @@
       </c>
       <c r="Q19" s="5">
         <f>Q8</f>
-        <v>27.021000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14.021000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -2570,30 +2524,30 @@
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="17">
         <v>2</v>
@@ -2618,31 +2572,31 @@
         <v>0.02</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="7">
         <f>SUM(Q17:Q20)</f>
-        <v>56.043833250000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43.043833249999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="14">
         <v>0</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="17">
         <v>2</v>
@@ -2667,24 +2621,24 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -2709,24 +2663,24 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
@@ -2751,24 +2705,24 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="17">
         <v>0</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
@@ -2793,24 +2747,24 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
@@ -2835,24 +2789,24 @@
         <v>0.39849999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="30">
       <c r="A27" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="17">
         <v>1</v>
@@ -2877,535 +2831,421 @@
         <v>1.0135000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:17" ht="30">
+      <c r="A29" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="30" t="s">
+      <c r="K29" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="32" t="s">
+    <row r="30" spans="1:17" ht="30">
+      <c r="A30" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="33">
+      <c r="B30" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="27">
         <v>1</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="33" t="s">
+      <c r="D30" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="E30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="33">
+      <c r="F30" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="27">
         <v>1</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="27">
         <v>5</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="26">
         <v>0.03</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="27">
         <v>0.03</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="27">
         <v>0.15</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="27">
         <v>3.15</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="33">
+      <c r="B31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="27">
         <v>1</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="E31" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="33">
+      <c r="F31" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="27">
         <v>1</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="27">
         <v>5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="31">
         <v>0.43</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="27">
         <v>0.43</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="27">
         <v>2.15</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="27">
         <v>5.15</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="33">
+      <c r="B32" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="27">
         <v>1</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="33">
+      <c r="F32" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="27">
         <v>1</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="27">
         <v>5</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="27">
         <v>0.47</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="27">
         <v>0.47</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="27">
         <v>2.35</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="27">
         <v>5.35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="1:12" ht="30">
+      <c r="A33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="33">
+      <c r="F33" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="27">
+        <v>8</v>
+      </c>
+      <c r="H33" s="27">
+        <v>40</v>
+      </c>
+      <c r="I33" s="27">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J33" s="27">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K33" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L33" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="27">
         <v>1</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="H34" s="27">
+        <v>5</v>
+      </c>
+      <c r="I34" s="26">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J34" s="27">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="K34" s="27">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L34" s="27">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="33">
+      <c r="B35" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="27">
         <v>2</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H35" s="27">
         <v>10</v>
       </c>
-      <c r="I33" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J33" s="33">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K33" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="L33" s="33">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="33">
+      <c r="I35" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="J35" s="27">
+        <v>2E-3</v>
+      </c>
+      <c r="K35" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="L35" s="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="27">
+        <v>2</v>
+      </c>
+      <c r="H36" s="27">
+        <v>10</v>
+      </c>
+      <c r="I36" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="K36" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="27">
         <v>1</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="33">
-        <v>6</v>
-      </c>
-      <c r="H34" s="33">
-        <v>30</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0.04</v>
-      </c>
-      <c r="J34" s="33">
-        <v>0.24</v>
-      </c>
-      <c r="K34" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="L34" s="33">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="33">
+      <c r="H37" s="27">
+        <v>5</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="J37" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="K37" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="L37" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="27">
+        <v>0</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="27">
         <v>1</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="33">
-        <v>6</v>
-      </c>
-      <c r="H35" s="33">
-        <v>30</v>
-      </c>
-      <c r="I35" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J35" s="33">
-        <v>0.42</v>
-      </c>
-      <c r="K35" s="33">
-        <v>2.1</v>
-      </c>
-      <c r="L35" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="33">
+      <c r="H38" s="27">
+        <v>5</v>
+      </c>
+      <c r="I38" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="J38" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="K38" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="27">
         <v>0</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="33">
-        <v>8</v>
-      </c>
-      <c r="H36" s="33">
-        <v>40</v>
-      </c>
-      <c r="I36" s="33">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="J36" s="33">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="K36" s="33">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="L36" s="33">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="33">
-        <v>0</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="33">
+      <c r="D39" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="27">
         <v>1</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H39" s="27">
         <v>5</v>
       </c>
-      <c r="I37" s="32">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="J37" s="33">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K37" s="33">
-        <v>2.3E-2</v>
-      </c>
-      <c r="L37" s="33">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="33">
-        <v>0</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="33">
-        <v>2</v>
-      </c>
-      <c r="H38" s="33">
-        <v>10</v>
-      </c>
-      <c r="I38" s="37">
-        <v>1E-3</v>
-      </c>
-      <c r="J38" s="33">
-        <v>2E-3</v>
-      </c>
-      <c r="K38" s="33">
+      <c r="I39" s="31">
         <v>0.01</v>
       </c>
-      <c r="L38" s="33">
+      <c r="J39" s="27">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="33">
-        <v>2</v>
-      </c>
-      <c r="H39" s="33">
-        <v>10</v>
-      </c>
-      <c r="I39" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="J39" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="K39" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="L39" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="33">
-        <v>1</v>
-      </c>
-      <c r="H40" s="33">
-        <v>5</v>
-      </c>
-      <c r="I40" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="J40" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="K40" s="33">
+      <c r="K39" s="27">
         <v>0.05</v>
       </c>
-      <c r="L40" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="33">
-        <v>1</v>
-      </c>
-      <c r="H41" s="33">
-        <v>5</v>
-      </c>
-      <c r="I41" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="J41" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="K41" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="L41" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="33">
-        <v>1</v>
-      </c>
-      <c r="H42" s="33">
-        <v>5</v>
-      </c>
-      <c r="I42" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="K42" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="L42" s="33">
+      <c r="L39" s="27">
         <v>0.05</v>
       </c>
     </row>
@@ -3440,13 +3280,11 @@
     <hyperlink ref="D24" r:id="rId21" xr:uid="{7C5E8AE3-CF57-42E2-8F21-819F23A2F066}"/>
     <hyperlink ref="D26" r:id="rId22" xr:uid="{37B808A1-60E1-42C7-B4B0-48E2352FE369}"/>
     <hyperlink ref="D30" r:id="rId23" xr:uid="{E3C90842-EC3E-42AA-8662-B428F593AAFD}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{4FE46601-941C-40BF-B417-9213C09584A7}"/>
-    <hyperlink ref="D35" r:id="rId25" xr:uid="{73ECF667-9F67-4A4C-ADE2-1E54951BA802}"/>
-    <hyperlink ref="D36" r:id="rId26" xr:uid="{D8374A54-0504-4B92-B500-6D9A9CCAEA34}"/>
-    <hyperlink ref="D37" r:id="rId27" xr:uid="{5509AF4A-D3FB-48BE-A3FB-C28CC335FAB2}"/>
-    <hyperlink ref="D39" r:id="rId28" xr:uid="{1E544DAA-23F8-4A81-B7A3-C9ABFDC3F42F}"/>
+    <hyperlink ref="D33" r:id="rId24" xr:uid="{D8374A54-0504-4B92-B500-6D9A9CCAEA34}"/>
+    <hyperlink ref="D34" r:id="rId25" xr:uid="{5509AF4A-D3FB-48BE-A3FB-C28CC335FAB2}"/>
+    <hyperlink ref="D36" r:id="rId26" xr:uid="{1E544DAA-23F8-4A81-B7A3-C9ABFDC3F42F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Docs/BOM_Group_3.xlsx
+++ b/Docs/BOM_Group_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1fd496a47fa4da2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA49C12-E273-47AA-957B-92BE07DE4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E4635B-8BB2-477D-A902-A2534B6DE58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2880" yWindow="1995" windowWidth="21600" windowHeight="11835" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="15390" windowHeight="13500" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="196">
   <si>
     <t>JLCPCB PART NUM</t>
   </si>
@@ -74,177 +74,189 @@
     <t>PRICE FIVE BOARDS EXTENDED ($)</t>
   </si>
   <si>
+    <t>C15008</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/15681-CL31A107MQHNNNE/C15008</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>SENSOR MODULE TOTALS</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/29074-CL21B105KBFNNNE/C28323</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t>One Board</t>
+  </si>
+  <si>
+    <t>C149504</t>
+  </si>
+  <si>
+    <t>0805W8F1003T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/160838-0805W8F1003T5E/C149504</t>
+  </si>
+  <si>
+    <t>R23,R24</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>Five Boards</t>
+  </si>
+  <si>
+    <t>C4310</t>
+  </si>
+  <si>
+    <t>0805W8F1501T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/4717-0805W8F1501T5E/C4310</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>C17379</t>
+  </si>
+  <si>
+    <t>0805W8F1201T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18067-0805W8F1201T5E/C17379</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER MODULE TOTALS</t>
+  </si>
+  <si>
+    <t>C2655167</t>
+  </si>
+  <si>
+    <t>VL6180V1NR/1</t>
+  </si>
+  <si>
+    <t>https://test.jlcpcb.com/partdetail/Stmicroelectronics-VL6180V1NR1/C2655167</t>
+  </si>
+  <si>
+    <t>VL6180</t>
+  </si>
+  <si>
+    <t>PROX SENSOR</t>
+  </si>
+  <si>
+    <t>C75510</t>
+  </si>
+  <si>
+    <t>LM317AG-TN3-R</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/utc_unisonic_tech-LM317AG_TN3R/C75510</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>LM317AG</t>
+  </si>
+  <si>
+    <t>C78284</t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/79418-BSS138/C78284</t>
+  </si>
+  <si>
+    <t>Q4, Q6, Q7, Q8</t>
+  </si>
+  <si>
+    <t>C17414</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E | UNI-ROYAL(Uniroyal Elec) | Chip Resistor - Surface Mount | JLCPCB</t>
+  </si>
+  <si>
+    <t>R38, R39, R40, R41, R46, R47, R48, R49</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>C17477</t>
+  </si>
+  <si>
+    <t>0805W8F0000T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18165-0805W8F0000T5E/C17477</t>
+  </si>
+  <si>
+    <t>R18,R21,R22,R25,R37,R43,R44,R50,R36,R42,R45,R51</t>
+  </si>
+  <si>
+    <t>0k</t>
+  </si>
+  <si>
+    <t>POWER MODULE TOTALS</t>
+  </si>
+  <si>
+    <t>C7171</t>
+  </si>
+  <si>
+    <t>TAJA106K016RNJ</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/KyoceraAvx-TAJA106K016RNJ/C7171</t>
+  </si>
+  <si>
+    <t>C1, C4</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
     <t>C49678</t>
   </si>
   <si>
-    <t>CC0805KRX7R9BB104</t>
-  </si>
-  <si>
     <t>https://jlcpcb.com/partdetail/Yageo-CC0805KRX7R9BB104/C49678</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>C8</t>
   </si>
   <si>
     <t>0.1u</t>
   </si>
   <si>
-    <t>SENSOR MODULE TOTALS</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNE</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/29074-CL21B105KBFNNNE/C28323</t>
-  </si>
-  <si>
-    <t>C7,C8,C9</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>One Board</t>
-  </si>
-  <si>
-    <t>C149504</t>
-  </si>
-  <si>
-    <t>0805W8F1003T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/160838-0805W8F1003T5E/C149504</t>
-  </si>
-  <si>
-    <t>R26,R27</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>Five Boards</t>
-  </si>
-  <si>
-    <t>C4310</t>
-  </si>
-  <si>
-    <t>0805W8F1501T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/4717-0805W8F1501T5E/C4310</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>C17379</t>
-  </si>
-  <si>
-    <t>0805W8F1201T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18067-0805W8F1201T5E/C17379</t>
-  </si>
-  <si>
-    <t>1.2k</t>
-  </si>
-  <si>
-    <t>MICROCONTROLLER MODULE TOTALS</t>
-  </si>
-  <si>
-    <t>C1850419</t>
-  </si>
-  <si>
-    <t>VCNL36821S</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/VishayIntertech-VCNL36821S/C1850419</t>
-  </si>
-  <si>
-    <t>PROX SENSOR</t>
-  </si>
-  <si>
-    <t>C75510</t>
-  </si>
-  <si>
-    <t>LM317AG-TN3-R</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/utc_unisonic_tech-LM317AG_TN3R/C75510</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>LM317AG</t>
-  </si>
-  <si>
-    <t>C784617</t>
-  </si>
-  <si>
-    <t>BSS123</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Fuxinsemi-BSS123/C784617</t>
-  </si>
-  <si>
-    <t>Q3, Q4, Q5</t>
-  </si>
-  <si>
-    <t>C17477</t>
-  </si>
-  <si>
-    <t>0805W8F0000T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18165-0805W8F0000T5E/C17477</t>
-  </si>
-  <si>
-    <t>R7, R8, R13, R14, R15, R16, R17, R18, R23, R24, R25, R28</t>
-  </si>
-  <si>
-    <t>0k</t>
-  </si>
-  <si>
-    <t>POWER MODULE TOTALS</t>
-  </si>
-  <si>
-    <t>C7171</t>
-  </si>
-  <si>
-    <t>TAJA106K016RNJ</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/KyoceraAvx-TAJA106K016RNJ/C7171</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C5378</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/5810-CL21B224KBFNNNE/C5378</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>HAT TOTALS</t>
   </si>
   <si>
@@ -281,30 +293,78 @@
     <t>Power Module</t>
   </si>
   <si>
-    <t>C17414</t>
-  </si>
-  <si>
-    <t>0805W8F1002T5E</t>
-  </si>
-  <si>
     <t>https://jlcpcb.com/partdetail/18102-0805W8F1002T5E/C17414</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>10k</t>
+    <t>R5, R6</t>
   </si>
   <si>
     <t>MicroController Interfacing</t>
   </si>
   <si>
-    <t>R4, R5, R6, R7</t>
+    <t>R1, R2, R7, R8, R9, R17</t>
   </si>
   <si>
     <t>Manufacturing</t>
   </si>
   <si>
+    <t>C17927</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18615-1206W4F1004T5E/C17927</t>
+  </si>
+  <si>
+    <t>R11, R13</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>GZ2012D101TF</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Sunlord-GZ2012D101TF/C1015</t>
+  </si>
+  <si>
+    <t>R15, R16</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>C2857251</t>
+  </si>
+  <si>
+    <t>ZMM2V0</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Jsmsemi-ZMM2V0/C2857251</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D_Zener</t>
+  </si>
+  <si>
+    <t>C4172</t>
+  </si>
+  <si>
+    <t>0603WAF1504T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/4579-0603WAF1504T5E/C4172</t>
+  </si>
+  <si>
+    <t>R10, R11</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
     <t>C22764</t>
   </si>
   <si>
@@ -314,15 +374,12 @@
     <t>https://jlcpcb.com/partdetail/23491-0603WAF1101T5E/C22764</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R3, R4, R14</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
     <t>C191023</t>
   </si>
   <si>
@@ -362,7 +419,7 @@
     <t>https://jlcpcb.com/partdetail/Lrc-LBSS84LT1G/C8492</t>
   </si>
   <si>
-    <t>Q2</t>
+    <t>Q2, Q3</t>
   </si>
   <si>
     <t>C5446</t>
@@ -420,7 +477,7 @@
     <t>https://jlcpcb.com/partdetail/ShouHan-MicroXNJ/C404969</t>
   </si>
   <si>
-    <t>J7</t>
+    <t>J6</t>
   </si>
   <si>
     <t>Micro-B USB Connector</t>
@@ -435,7 +492,7 @@
     <t>https://jlcpcb.com/partdetail/Onsemi-CAT24C256WIGT3/C79987</t>
   </si>
   <si>
-    <t>U5</t>
+    <t>U6</t>
   </si>
   <si>
     <t>EEPROM</t>
@@ -450,16 +507,16 @@
     <t>https://jlcpcb.com/partdetail/wch_jiangsu_Qin_heng-CH340C/C84681</t>
   </si>
   <si>
-    <t>U6</t>
+    <t>U7</t>
   </si>
   <si>
     <t>USB to Serial</t>
   </si>
   <si>
-    <t>R29, R30, R31, R34, R35, R36, R37, R38</t>
-  </si>
-  <si>
-    <t>C10</t>
+    <t>R26, R27, R28, R31, R32, R33, R34, R35</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -474,7 +531,7 @@
     <t>https://jlcpcb.com/parts/2nd/Resistors/Chip_Resistor_Surface_Mount_4</t>
   </si>
   <si>
-    <t>R32, R33</t>
+    <t>R29, R30</t>
   </si>
   <si>
     <t>4.7K</t>
@@ -489,7 +546,7 @@
     <t>https://jlcpcb.com/partdetail/1877-CL05B104KO5NNNC/C1525</t>
   </si>
   <si>
-    <t>C11, C12</t>
+    <t>C13, C14</t>
   </si>
   <si>
     <t>100nF</t>
@@ -504,7 +561,7 @@
     <t>https://jlcpcb.com/partdetail/20375-CL10A475KO8NNNC/C19666</t>
   </si>
   <si>
-    <t>C13</t>
+    <t>C15</t>
   </si>
   <si>
     <t>4.7uF</t>
@@ -519,7 +576,7 @@
     <t>https://jlcpcb.com/partdetail/15869-CL05B103KB5NNNC/C15195</t>
   </si>
   <si>
-    <t>C14</t>
+    <t>C16</t>
   </si>
   <si>
     <t>10nF</t>
@@ -534,10 +591,40 @@
     <t>https://jlcpcb.com/partdetail/53938-CL05A105KA5NQNC/C52923</t>
   </si>
   <si>
-    <t>C15</t>
+    <t>C17</t>
   </si>
   <si>
     <t>1uF</t>
+  </si>
+  <si>
+    <t>C107114</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN300</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Yageo-CC0805JRNPO9BN300/C107114</t>
+  </si>
+  <si>
+    <t>C10,C11</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>C252310</t>
+  </si>
+  <si>
+    <t>6CS08000F20UCG</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/247485-6CS08000F20UCG/C252310</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>8MHz, 20pF</t>
   </si>
 </sst>
 </file>
@@ -548,12 +635,18 @@
     <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,13 +806,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -744,8 +830,35 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,18 +1070,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1085,241 +1192,123 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1676,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604B193-2981-424E-9BAA-D7E15C8CB1A8}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,7 +1676,7 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
@@ -1700,623 +1689,618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <f>I2*G2</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <f>I2*H2</f>
         <v>2.3E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <f>K2+3*C2</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="38"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>15</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J27" si="0">I3*G3</f>
-        <v>2.8499999999999998E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K10" si="1">I3*H3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J31" si="0">I3*G3</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K11" si="1">I3*H3</f>
         <v>0.14249999999999999</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L10" si="2">K3+3*C3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L11" si="2">K3+3*C3</f>
         <v>0.14249999999999999</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="24">
         <f>Q4/5</f>
-        <v>1.9896999999999998</v>
+        <v>3.6037999899999997</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>1.6999999999999998E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>1.6999999999999998E-2</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="5">
-        <f>SUM(L2:L10)</f>
-        <v>9.9484999999999992</v>
+      <c r="Q4" s="24">
+        <f>SUM(L2:L11)</f>
+        <v>18.018999949999998</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="11">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>1.8E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>1.8E-3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1.8E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>1.8E-3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="44"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
       <c r="I7" s="8">
-        <v>0.4859</v>
-      </c>
-      <c r="J7" s="2">
+        <v>2.0785999999999998</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>0.4859</v>
-      </c>
-      <c r="K7" s="2">
+        <v>2.0785999999999998</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>2.4295</v>
-      </c>
-      <c r="L7" s="2">
+        <v>10.392999999999999</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
-        <v>5.4295</v>
-      </c>
-      <c r="P7" s="2" t="s">
+        <v>13.392999999999999</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="24">
         <f>Q8/5</f>
-        <v>2.8042000000000002</v>
+        <v>3.5442</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.18720000000000001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>0.93600000000000005</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0.93600000000000005</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="5">
-        <f xml:space="preserve"> SUM(L30:L39)</f>
-        <v>14.021000000000001</v>
+      <c r="Q8" s="24">
+        <f xml:space="preserve"> SUM(L34:L45)</f>
+        <v>17.721</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>15</v>
       </c>
-      <c r="I9" s="11">
-        <v>1.67E-2</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="8">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2505</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K9" s="3">
+        <f>I9*H9</f>
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>3.2505000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45">
-      <c r="A10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="8" t="s">
+        <v>3.3374999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>54</v>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.33333E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>I10*G10</f>
+        <v>1.066664E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <f>I10*H10</f>
+        <v>1.9999949999999999E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f>K10+3*C10</f>
+        <v>1.9999949999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="60">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3">
         <v>12</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="3">
         <v>60</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>2.64E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="P10" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="42"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="35"/>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="5">
-        <f>SUM(J14:J27)</f>
-        <v>1.41486665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="34"/>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="24">
+        <f>SUM(J15:J31)</f>
+        <v>1.2916666600000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="P13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="5">
-        <f>SUM(L14:L27)</f>
-        <v>7.0743332500000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30">
-      <c r="A13" s="12" t="s">
+      <c r="Q13" s="24">
+        <f>SUM(L15:L31)</f>
+        <v>6.4583333000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30.75">
+      <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="14">
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <f>5*G14</f>
-        <v>20</v>
-      </c>
-      <c r="I14" s="14">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="K14" s="2">
-        <f>I14*H14</f>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="L14" s="2">
-        <f>K14+3*C14</f>
-        <v>1.7599999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
+      <c r="F15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <f>5*G15</f>
-        <v>5</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1.2500000000000001E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="3">I15*G15</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17599999999999999</v>
       </c>
       <c r="K15" s="2">
         <f>I15*H15</f>
-        <v>6.25E-2</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="L15" s="2">
         <f>K15+3*C15</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
+        <v>0.87999999999999989</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16:H27" si="4">5*G16</f>
+        <f t="shared" ref="H16:H31" si="3">5*G16</f>
         <v>5</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="J16" s="2">
@@ -2324,45 +2308,45 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ref="K16:K17" si="5">I16*H16</f>
+        <f t="shared" ref="K16:K17" si="4">I16*H16</f>
         <v>2.3E-2</v>
       </c>
       <c r="L16" s="2">
         <f>K16+3*C16</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P16" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="40"/>
+      <c r="P16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="17">
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J17" s="2">
@@ -2370,47 +2354,48 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17:L27" si="6">K17+3*C17</f>
+        <f t="shared" ref="L17:L25" si="5">K17+3*C17</f>
         <v>0.03</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>9.9484999999999992</v>
+      <c r="P17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="24">
+        <f>Q4</f>
+        <v>18.018999949999998</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="17">
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="2">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="J18" s="2">
@@ -2418,842 +2403,1089 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:K27" si="7">I18*H18</f>
+        <f t="shared" ref="K18:K31" si="6">I18*H18</f>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>Q12</f>
-        <v>7.0743332500000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30">
-      <c r="A19" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="P18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="24">
+        <f>Q13</f>
+        <v>6.4583333000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30.75">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="17">
-        <v>5</v>
+      <c r="E19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="I19" s="17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2">
         <v>1.33333E-3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>6.6666499999999997E-3</v>
+        <v>2.66666E-3</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="7"/>
-        <v>3.3333250000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.3333299999999999E-2</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="6"/>
-        <v>3.3333250000000002E-2</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3333299999999999E-2</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="24">
         <f>Q8</f>
-        <v>14.021000000000001</v>
+        <v>17.721</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4</v>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I20" s="11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>8.8000000000000005E-3</v>
+        <v>1.32E-2</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="7"/>
-        <v>4.4000000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="6">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="25">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="17" t="s">
-        <v>89</v>
+    <row r="21" spans="1:17" ht="16.5">
+      <c r="A21" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="2">
         <v>2</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I21" s="2">
-        <v>2E-3</v>
+      <c r="I21" s="17">
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <f>I21*G21</f>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
+        <f>I21*H21</f>
+        <v>3.1E-2</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="P21" s="4" t="s">
+        <f>K21+3*C21</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="P21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="27">
         <f>SUM(Q17:Q20)</f>
-        <v>43.043833249999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="17" t="s">
+        <v>54.198333250000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5">
+      <c r="A22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <f>5*G22</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="17">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <f>I22*G22</f>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <f>I22*H22</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f>K22+3*C22</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5">
+      <c r="A23" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="17">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" ref="J22" si="8">I22*G22</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" ref="K22" si="9">I22*H22</f>
-        <v>1.62</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" ref="L22" si="10">K22+3*C22</f>
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="14">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="4"/>
+        <f>5*G23</f>
         <v>5</v>
       </c>
-      <c r="I23" s="14">
-        <v>0.28000000000000003</v>
+      <c r="I23" s="17">
+        <v>1.03E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" ref="J23" si="11">I23*G23</f>
-        <v>0.28000000000000003</v>
+        <f>I23*G23</f>
+        <v>1.03E-2</v>
       </c>
       <c r="K23" s="2">
         <f>I23*H23</f>
+        <v>5.1500000000000004E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <f>K23+3*C23</f>
+        <v>5.1500000000000004E-2</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5">
+      <c r="A24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <f>5*G24</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J24" s="2">
+        <f>I24*G24</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K24" s="2">
+        <f>I24*H24</f>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <f>K24+3*C24</f>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26" si="7">I26*G26</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26" si="8">I26*H26</f>
+        <v>1.62</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ref="L26" si="9">K26+3*C26</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ref="J27" si="10">I27*G27</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K27" s="2">
+        <f>I27*H27</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" ref="L23" si="12">K23+3*C23</f>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="11">K27+3*C27</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="17">
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28:J30" si="12">I28*G28</f>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28:K30" si="13">I28*H28</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28:L29" si="14">K28+3*C28</f>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="4"/>
+      <c r="H29" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I24" s="14">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" ref="J24:J26" si="13">I24*G24</f>
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24:K26" si="14">I24*H24</f>
-        <v>0.121</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" ref="L24:L26" si="15">K24+3*C24</f>
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="I29" s="2">
         <v>9.64E-2</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J29" s="2">
+        <f t="shared" si="12"/>
+        <v>9.64E-2</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="13"/>
-        <v>9.64E-2</v>
-      </c>
-      <c r="K25" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="14"/>
         <v>0.48199999999999998</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="15"/>
-        <v>0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="17">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="4"/>
+      <c r="H30" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I30" s="2">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J30" s="2">
+        <f t="shared" si="12"/>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="13"/>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="14"/>
         <v>0.39849999999999997</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="15"/>
+      <c r="L30" s="2">
+        <f>K30+3*C30</f>
         <v>0.39849999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30">
-      <c r="A27" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="17">
+    <row r="31" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="4"/>
+      <c r="H31" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I31" s="2">
         <v>0.20269999999999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>0.20269999999999999</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0135000000000001</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="6"/>
         <v>1.0135000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="30">
-      <c r="A29" s="23" t="s">
+      <c r="L31" s="2">
+        <f>K31+3*C31</f>
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30">
+      <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="K33" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30">
-      <c r="A30" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="27">
+    <row r="34" spans="1:12" ht="30">
+      <c r="A34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="27">
+      <c r="D34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H34" s="2">
         <v>5</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I34" s="5">
         <v>0.03</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J34" s="2">
         <v>0.03</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K34" s="2">
         <v>0.15</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L34" s="2">
         <v>3.15</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="27">
+    <row r="35" spans="1:12">
+      <c r="A35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="27">
+      <c r="D35" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H35" s="2">
         <v>5</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I35" s="22">
         <v>0.43</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J35" s="2">
         <v>0.43</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K35" s="2">
         <v>2.15</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L35" s="2">
         <v>5.15</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="27">
+    <row r="36" spans="1:12">
+      <c r="A36" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="27">
+      <c r="D36" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H36" s="2">
         <v>5</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I36" s="2">
         <v>0.47</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J36" s="2">
         <v>0.47</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K36" s="2">
         <v>2.35</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L36" s="2">
         <v>5.35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30">
-      <c r="A33" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="27">
+    <row r="37" spans="1:12" ht="30.75">
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="27">
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H37" s="2">
         <v>40</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I37" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J37" s="2">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K37" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L37" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="26" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="27">
+      <c r="D38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H38" s="2">
         <v>5</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I38" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J38" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K38" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L38" s="2">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="27">
+    <row r="39" spans="1:12">
+      <c r="A39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="27">
+      <c r="D39" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H39" s="2">
         <v>10</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I39" s="22">
         <v>1E-3</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J39" s="2">
         <v>2E-3</v>
       </c>
-      <c r="K35" s="27">
+      <c r="K39" s="2">
         <v>0.01</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L39" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="27">
+    <row r="40" spans="1:12">
+      <c r="A40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="27">
+      <c r="D40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H40" s="2">
         <v>10</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I40" s="22">
         <v>0.01</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J40" s="2">
         <v>0.02</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K40" s="2">
         <v>0.1</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L40" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="27">
+    <row r="41" spans="1:12">
+      <c r="A41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="27">
+      <c r="D41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H41" s="2">
         <v>5</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I41" s="22">
         <v>0.01</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J41" s="2">
         <v>0.01</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K41" s="2">
         <v>0.05</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L41" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="27">
+    <row r="42" spans="1:12">
+      <c r="A42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="27">
+      <c r="D42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H42" s="2">
         <v>5</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I42" s="22">
         <v>0.01</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J42" s="2">
         <v>0.01</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K42" s="2">
         <v>0.05</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L42" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="27">
+    <row r="43" spans="1:12">
+      <c r="A43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="27">
+      <c r="D43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H43" s="2">
         <v>5</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I43" s="22">
         <v>0.01</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J43" s="2">
         <v>0.01</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K43" s="2">
         <v>0.05</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L43" s="2">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="32">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="32">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <f>G45*5</f>
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="J45" s="3">
+        <f>I45*G45</f>
+        <v>0.12</v>
+      </c>
+      <c r="K45" s="3">
+        <f>J45*5</f>
+        <v>0.6</v>
+      </c>
+      <c r="L45" s="3">
+        <f>K45+3*C45</f>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <hyperlinks>
@@ -3261,30 +3493,39 @@
     <hyperlink ref="D8" r:id="rId2" xr:uid="{62ED16CD-4722-4F09-9D80-98FC258B8B0A}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{282154AB-C621-4551-BD73-DBBE92E817AF}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{60BC1EFB-0EA7-42A0-B4EC-973B3D127D78}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{25083DA5-2C27-422B-A7AB-6D19226DD270}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{AFFE0948-E984-4B75-8D29-B617396C5ED4}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{5BAEF2B6-35CD-4F84-ADC9-6D8100AE9419}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{0EFD3078-66F1-45EA-AB51-35ED823DECF6}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{88CAB1FC-83D8-45F0-A084-61E5A4F81BB8}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{EA7EF83E-893E-4173-B062-4BB26DFBCFC2}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{55D7210D-F008-41E3-BD0C-DD1B46230E1B}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{EEC7D588-102B-416B-85D7-89D50F858D8B}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{81180385-8231-4309-9662-78C81DE83049}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{37124F78-7A9A-431D-BD77-E6295B12FB85}"/>
-    <hyperlink ref="D27" r:id="rId15" xr:uid="{43161E63-565C-4DF2-817B-EC13B9ABA329}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{A66C6655-197C-46AA-89FE-17CE1C610B22}"/>
-    <hyperlink ref="D15" r:id="rId17" xr:uid="{4A49E848-CE77-4448-815C-051F9EC271CB}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{8D7CC6EF-B9A3-420C-940C-165CE3B237DD}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{F19FD3C0-F316-416F-93ED-E235B5987457}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{6A822DB6-441E-4708-B47B-9877D6427B21}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{7C5E8AE3-CF57-42E2-8F21-819F23A2F066}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{37B808A1-60E1-42C7-B4B0-48E2352FE369}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{E3C90842-EC3E-42AA-8662-B428F593AAFD}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{D8374A54-0504-4B92-B500-6D9A9CCAEA34}"/>
-    <hyperlink ref="D34" r:id="rId25" xr:uid="{5509AF4A-D3FB-48BE-A3FB-C28CC335FAB2}"/>
-    <hyperlink ref="D36" r:id="rId26" xr:uid="{1E544DAA-23F8-4A81-B7A3-C9ABFDC3F42F}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{AFFE0948-E984-4B75-8D29-B617396C5ED4}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{5BAEF2B6-35CD-4F84-ADC9-6D8100AE9419}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{0EFD3078-66F1-45EA-AB51-35ED823DECF6}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{88CAB1FC-83D8-45F0-A084-61E5A4F81BB8}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{EA7EF83E-893E-4173-B062-4BB26DFBCFC2}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{55D7210D-F008-41E3-BD0C-DD1B46230E1B}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{EEC7D588-102B-416B-85D7-89D50F858D8B}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{81180385-8231-4309-9662-78C81DE83049}"/>
+    <hyperlink ref="D25" r:id="rId13" xr:uid="{37124F78-7A9A-431D-BD77-E6295B12FB85}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{43161E63-565C-4DF2-817B-EC13B9ABA329}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{A66C6655-197C-46AA-89FE-17CE1C610B22}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{8D7CC6EF-B9A3-420C-940C-165CE3B237DD}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{F19FD3C0-F316-416F-93ED-E235B5987457}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{6A822DB6-441E-4708-B47B-9877D6427B21}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{7C5E8AE3-CF57-42E2-8F21-819F23A2F066}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{37B808A1-60E1-42C7-B4B0-48E2352FE369}"/>
+    <hyperlink ref="D34" r:id="rId21" xr:uid="{E3C90842-EC3E-42AA-8662-B428F593AAFD}"/>
+    <hyperlink ref="D37" r:id="rId22" xr:uid="{D8374A54-0504-4B92-B500-6D9A9CCAEA34}"/>
+    <hyperlink ref="D38" r:id="rId23" xr:uid="{5509AF4A-D3FB-48BE-A3FB-C28CC335FAB2}"/>
+    <hyperlink ref="D40" r:id="rId24" xr:uid="{1E544DAA-23F8-4A81-B7A3-C9ABFDC3F42F}"/>
+    <hyperlink ref="D9" r:id="rId25" xr:uid="{C1FCD89B-41AB-4EB3-8D02-5943F8B044B1}"/>
+    <hyperlink ref="D22" r:id="rId26" xr:uid="{2CEEC5DA-23B8-4B06-A77F-9F36C02077DE}"/>
+    <hyperlink ref="D45" r:id="rId27" xr:uid="{AD24C0E6-1442-4059-A3F2-6A018FDF53AC}"/>
+    <hyperlink ref="D44" r:id="rId28" xr:uid="{E16F0379-09B8-46F9-974B-C2815D85E560}"/>
+    <hyperlink ref="D41" r:id="rId29" xr:uid="{B06E13F2-6EAF-4DD3-ABED-A3448F233968}"/>
+    <hyperlink ref="D43" r:id="rId30" xr:uid="{B514D13E-215C-4C69-A3E2-721D0B9069A9}"/>
+    <hyperlink ref="D42" r:id="rId31" xr:uid="{1223DFFB-49D8-49C2-A33E-84506E8A0855}"/>
+    <hyperlink ref="D23" r:id="rId32" xr:uid="{6F5E51C7-014B-4365-9A6A-49ACE311529E}"/>
+    <hyperlink ref="D10" r:id="rId33" display="https://jlcpcb.com/partdetail/18102-0805W8F1002T5E/C17414" xr:uid="{4895ECD8-CAF0-4424-BFBD-6491E2DF1254}"/>
+    <hyperlink ref="D21" r:id="rId34" xr:uid="{0C2F7FFE-37D3-481D-BB64-70DF9C836308}"/>
+    <hyperlink ref="D24" r:id="rId35" xr:uid="{DF38D325-D99A-4F5B-8CE3-6CD014A9169B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Docs/BOM_Group_3.xlsx
+++ b/Docs/BOM_Group_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1fd496a47fa4da2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\adrian\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E4635B-8BB2-477D-A902-A2534B6DE58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FE60D-8B9F-43E1-8AFB-C887289E10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="15390" windowHeight="13500" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,7 +1267,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1290,12 +1290,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,7 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1667,11 +1667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604B193-2981-424E-9BAA-D7E15C8CB1A8}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="132" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1688,7 +1688,7 @@
     <col min="22" max="22" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1766,12 +1766,12 @@
         <f>K2+3*C2</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>3.6037999899999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>18.018999949999998</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -1948,12 +1948,12 @@
         <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5">
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>3.5442</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>17.721</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>3.3374999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>1.9999949999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="60">
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
@@ -2171,12 +2171,12 @@
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
@@ -2185,16 +2185,16 @@
         <v>1.2916666600000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="24">
         <f>SUM(L15:L31)</f>
-        <v>6.4583333000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30.75">
+        <v>9.4583333000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -2315,12 +2315,12 @@
         <f>K16+3*C16</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>18.018999949999998</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -2415,10 +2415,10 @@
       </c>
       <c r="Q18" s="24">
         <f>Q13</f>
-        <v>6.4583333000000014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30.75">
+        <v>9.4583333000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>17.721</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>90</v>
       </c>
@@ -2561,10 +2561,10 @@
       </c>
       <c r="Q21" s="27">
         <f>SUM(Q17:Q20)</f>
-        <v>54.198333250000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5">
+        <v>57.198333250000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>90</v>
       </c>
@@ -2607,14 +2607,16 @@
       </c>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" ht="16.5">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2644,18 +2646,20 @@
       </c>
       <c r="L23" s="2">
         <f>K23+3*C23</f>
-        <v>5.1500000000000004E-2</v>
+        <v>3.0514999999999999</v>
       </c>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
@@ -2689,7 +2693,7 @@
       </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>114</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>133</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>0.39849999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>137</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>1.0135000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>148</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>153</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30.75">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>161</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>166</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>171</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>176</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>181</v>
       </c>
@@ -3401,32 +3405,32 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="28">
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="28">
         <v>2</v>
       </c>
       <c r="H44" s="1">
         <v>10</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="28">
         <v>0.01</v>
       </c>
       <c r="J44" s="2">
@@ -3435,11 +3439,11 @@
       <c r="K44" s="2">
         <v>0.1</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="28">
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>191</v>
       </c>

--- a/Docs/BOM_Group_3.xlsx
+++ b/Docs/BOM_Group_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\adrian\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FE60D-8B9F-43E1-8AFB-C887289E10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807EAC4-F0B4-4062-A8C5-2FF715D0B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26469A26-CE12-476E-91B8-81E814CF6A42}"/>
   </bookViews>
@@ -344,9 +344,6 @@
     <t>https://jlcpcb.com/partdetail/Jsmsemi-ZMM2V0/C2857251</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>D_Zener</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>8MHz, 20pF</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C604B193-2981-424E-9BAA-D7E15C8CB1A8}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="132" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2621,10 @@
         <v>101</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -2652,22 +2652,22 @@
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -2695,22 +2695,22 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -2737,22 +2737,22 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -2779,22 +2779,22 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2821,22 +2821,22 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -2863,22 +2863,22 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2905,22 +2905,22 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2947,22 +2947,22 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L33" s="19" t="s">
         <v>11</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -3103,22 +3103,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>60</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>62</v>
@@ -3191,10 +3191,10 @@
         <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -3217,22 +3217,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="F39" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -3255,22 +3255,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="F40" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -3293,22 +3293,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="F41" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -3331,22 +3331,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="F42" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -3369,22 +3369,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="F43" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -3407,22 +3407,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C44" s="28">
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="F44" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>190</v>
       </c>
       <c r="G44" s="28">
         <v>2</v>
@@ -3445,22 +3445,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
